--- a/Modélisation/Dictionnaire des Données/AdvancementScale.xlsx
+++ b/Modélisation/Dictionnaire des Données/AdvancementScale.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Advancement Scale" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -34,9 +34,6 @@
     <t>Code</t>
   </si>
   <si>
-    <t>avancement Echeelle</t>
-  </si>
-  <si>
     <t>Advancement Scale</t>
   </si>
   <si>
@@ -56,12 +53,15 @@
   </si>
   <si>
     <t>التاريخ</t>
+  </si>
+  <si>
+    <t>avancement Echelle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -98,7 +98,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -108,6 +108,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -143,7 +144,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -218,23 +219,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -270,23 +254,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -466,10 +433,10 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="23.5703125" style="1" customWidth="1"/>
@@ -496,13 +463,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C2" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -515,13 +482,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -531,16 +498,16 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
